--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_147.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_147.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4464285714285715</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D/b7', 'G/3', 'D', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:23.703945', '0:00:29.172244')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:07.205000', '0:00:21.095000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.922018', '0:00:10.687551')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:00:47.140000', '0:00:55.200000'), ('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -798,405 +818,376 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:01:02.860000', '0:01:08.740000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.380000', '0:00:16.420000'), ('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:01:13.620000', '0:01:21.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.52, 25.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.3, 4.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
